--- a/test_cases/modified_oracle/gentests_t3_oracle.xlsx
+++ b/test_cases/modified_oracle/gentests_t3_oracle.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinizr\phd\courses\gssi_testing\exam\essay\ct4bsn-replication_package\test_cases\modified_oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE50D1B7-980A-4541-BB3C-FFA91F48FE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4D1E5-1B48-47A5-83B7-0CD0F89BCF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSN-Test Set" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -463,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U487"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="R8" sqref="R8:R487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <f>IF(IF(A8&gt;3,1,0)+IF(C8&gt;3,1,0)+IF(E8&gt;3,1,0)+IF(G8&gt;3,1,0)+IF(I8&gt;3,1,0)+IF(K8&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <f>IF(IF(B8*C8&gt;3,1,0)+IF(D8*E8&gt;3,1,0)+IF(F8*G8&gt;3,1,0)+IF(H8*I8&gt;3,1,0)+IF(J8*K8&gt;3,1,0)+IF(L8*M8&gt;3,1,0)&gt;0,"ERROR",0)</f>
         <v>0</v>
       </c>
       <c r="S8">
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:R72" si="0">IF(IF(A9&gt;3,1,0)+IF(C9&gt;3,1,0)+IF(E9&gt;3,1,0)+IF(G9&gt;3,1,0)+IF(I9&gt;3,1,0)+IF(K9&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <f t="shared" ref="R9:R72" si="0">IF(IF(B9*C9&gt;3,1,0)+IF(D9*E9&gt;3,1,0)+IF(F9*G9&gt;3,1,0)+IF(H9*I9&gt;3,1,0)+IF(J9*K9&gt;3,1,0)+IF(L9*M9&gt;3,1,0)&gt;0,"ERROR",0)</f>
         <v>0</v>
       </c>
       <c r="S9">
@@ -829,21 +829,21 @@
       <c r="Q11">
         <v>4</v>
       </c>
-      <c r="R11" t="str">
+      <c r="R11">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
-      <c r="T11" t="str">
+      <c r="T11">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.92</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -898,21 +898,21 @@
       <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12" t="str">
+      <c r="R12">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T12" t="str">
+      <c r="T12">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -967,21 +967,21 @@
       <c r="Q13">
         <v>2</v>
       </c>
-      <c r="R13" t="str">
+      <c r="R13">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
-      <c r="T13" t="str">
+      <c r="T13">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1036,21 +1036,21 @@
       <c r="Q14">
         <v>3</v>
       </c>
-      <c r="R14" t="str">
+      <c r="R14">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
-      <c r="T14" t="str">
+      <c r="T14">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.09</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1105,21 +1105,21 @@
       <c r="Q15">
         <v>4</v>
       </c>
-      <c r="R15" t="str">
+      <c r="R15">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T15" t="str">
+      <c r="T15">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1174,21 +1174,21 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16" t="str">
+      <c r="R16">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="T16" t="str">
+      <c r="T16">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.08</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1243,21 +1243,21 @@
       <c r="Q17">
         <v>2</v>
       </c>
-      <c r="R17" t="str">
+      <c r="R17">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="T17" t="str">
+      <c r="T17">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1312,21 +1312,21 @@
       <c r="Q18">
         <v>3</v>
       </c>
-      <c r="R18" t="str">
+      <c r="R18">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="T18" t="str">
+      <c r="T18">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1381,21 +1381,21 @@
       <c r="Q19">
         <v>4</v>
       </c>
-      <c r="R19" t="str">
+      <c r="R19">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="T19" t="str">
+      <c r="T19">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.32</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1450,21 +1450,21 @@
       <c r="Q20">
         <v>1</v>
       </c>
-      <c r="R20" t="str">
+      <c r="R20">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T20" t="str">
+      <c r="T20">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1519,21 +1519,21 @@
       <c r="Q21">
         <v>2</v>
       </c>
-      <c r="R21" t="str">
+      <c r="R21">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
         <v>1.1300000000000001</v>
       </c>
-      <c r="T21" t="str">
+      <c r="T21">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1588,21 +1588,21 @@
       <c r="Q22">
         <v>3</v>
       </c>
-      <c r="R22" t="str">
+      <c r="R22">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
         <v>1.1300000000000001</v>
       </c>
-      <c r="T22" t="str">
+      <c r="T22">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.3900000000000006</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1657,21 +1657,21 @@
       <c r="Q23">
         <v>4</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R23">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T23" t="str">
+      <c r="T23">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -1726,21 +1726,21 @@
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24" t="str">
+      <c r="R24">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="T24" t="str">
+      <c r="T24">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.96</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -1795,21 +1795,21 @@
       <c r="Q25">
         <v>2</v>
       </c>
-      <c r="R25" t="str">
+      <c r="R25">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="T25" t="str">
+      <c r="T25">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -1864,21 +1864,21 @@
       <c r="Q26">
         <v>3</v>
       </c>
-      <c r="R26" t="str">
+      <c r="R26">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-      <c r="T26" t="str">
+      <c r="T26">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.79</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -1933,21 +1933,21 @@
       <c r="Q27">
         <v>4</v>
       </c>
-      <c r="R27" t="str">
+      <c r="R27">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-      <c r="T27" t="str">
+      <c r="T27">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.72</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2002,21 +2002,21 @@
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28" t="str">
+      <c r="R28">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
-      <c r="T28" t="str">
+      <c r="T28">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.98</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2071,21 +2071,21 @@
       <c r="Q29">
         <v>2</v>
       </c>
-      <c r="R29" t="str">
+      <c r="R29">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
-      <c r="T29" t="str">
+      <c r="T29">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2140,21 +2140,21 @@
       <c r="Q30">
         <v>3</v>
       </c>
-      <c r="R30" t="str">
+      <c r="R30">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
-      <c r="T30" t="str">
+      <c r="T30">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.0300000000000002</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2209,21 +2209,21 @@
       <c r="Q31">
         <v>4</v>
       </c>
-      <c r="R31" t="str">
+      <c r="R31">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
-      <c r="T31" t="str">
+      <c r="T31">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.92</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2278,21 +2278,21 @@
       <c r="Q32">
         <v>1</v>
       </c>
-      <c r="R32" t="str">
+      <c r="R32">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-      <c r="T32" t="str">
+      <c r="T32">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.06</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -2347,21 +2347,21 @@
       <c r="Q33">
         <v>2</v>
       </c>
-      <c r="R33" t="str">
+      <c r="R33">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-      <c r="T33" t="str">
+      <c r="T33">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.12</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -2416,21 +2416,21 @@
       <c r="Q34">
         <v>3</v>
       </c>
-      <c r="R34" t="str">
+      <c r="R34">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
-      <c r="T34" t="str">
+      <c r="T34">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.09</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2485,21 +2485,21 @@
       <c r="Q35">
         <v>4</v>
       </c>
-      <c r="R35" t="str">
+      <c r="R35">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-      <c r="T35" t="str">
+      <c r="T35">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.24</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2554,21 +2554,21 @@
       <c r="Q36">
         <v>1</v>
       </c>
-      <c r="R36" t="str">
+      <c r="R36">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="T36" t="str">
+      <c r="T36">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.08</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2623,21 +2623,21 @@
       <c r="Q37">
         <v>2</v>
       </c>
-      <c r="R37" t="str">
+      <c r="R37">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="T37" t="str">
+      <c r="T37">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.16</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2692,21 +2692,21 @@
       <c r="Q38">
         <v>3</v>
       </c>
-      <c r="R38" t="str">
+      <c r="R38">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="T38" t="str">
+      <c r="T38">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.33</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -2761,21 +2761,21 @@
       <c r="Q39">
         <v>4</v>
       </c>
-      <c r="R39" t="str">
+      <c r="R39">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <f t="shared" si="1"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="T39" t="str">
+      <c r="T39">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -2830,21 +2830,21 @@
       <c r="Q40">
         <v>1</v>
       </c>
-      <c r="R40" t="str">
+      <c r="R40">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
-      <c r="T40" t="str">
+      <c r="T40">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.94</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -2899,21 +2899,21 @@
       <c r="Q41">
         <v>2</v>
       </c>
-      <c r="R41" t="str">
+      <c r="R41">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <f t="shared" si="1"/>
         <v>0.91000000000000014</v>
       </c>
-      <c r="T41" t="str">
+      <c r="T41">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -2968,21 +2968,21 @@
       <c r="Q42">
         <v>3</v>
       </c>
-      <c r="R42" t="str">
+      <c r="R42">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
-      <c r="T42" t="str">
+      <c r="T42">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.82</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3037,21 +3037,21 @@
       <c r="Q43">
         <v>4</v>
       </c>
-      <c r="R43" t="str">
+      <c r="R43">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <f t="shared" si="1"/>
         <v>0.91000000000000014</v>
       </c>
-      <c r="T43" t="str">
+      <c r="T43">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.6400000000000006</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3106,21 +3106,21 @@
       <c r="Q44">
         <v>1</v>
       </c>
-      <c r="R44" t="str">
+      <c r="R44">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="T44" t="str">
+      <c r="T44">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.99</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3175,21 +3175,21 @@
       <c r="Q45">
         <v>2</v>
       </c>
-      <c r="R45" t="str">
+      <c r="R45">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="T45" t="str">
+      <c r="T45">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.92</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3244,21 +3244,21 @@
       <c r="Q46">
         <v>3</v>
       </c>
-      <c r="R46" t="str">
+      <c r="R46">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="T46" t="str">
+      <c r="T46">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.88</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3313,21 +3313,21 @@
       <c r="Q47">
         <v>4</v>
       </c>
-      <c r="R47" t="str">
+      <c r="R47">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="T47" t="str">
+      <c r="T47">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.96</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3382,21 +3382,21 @@
       <c r="Q48">
         <v>1</v>
       </c>
-      <c r="R48" t="str">
+      <c r="R48">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="T48" t="str">
+      <c r="T48">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.04</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -3451,21 +3451,21 @@
       <c r="Q49">
         <v>2</v>
       </c>
-      <c r="R49" t="str">
+      <c r="R49">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="T49" t="str">
+      <c r="T49">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.08</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -3520,21 +3520,21 @@
       <c r="Q50">
         <v>3</v>
       </c>
-      <c r="R50" t="str">
+      <c r="R50">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
-      <c r="T50" t="str">
+      <c r="T50">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.0300000000000002</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -3589,21 +3589,21 @@
       <c r="Q51">
         <v>4</v>
       </c>
-      <c r="R51" t="str">
+      <c r="R51">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
-      <c r="T51" t="str">
+      <c r="T51">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.04</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -3658,21 +3658,21 @@
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="R52" t="str">
+      <c r="R52">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="T52" t="str">
+      <c r="T52">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -3727,21 +3727,21 @@
       <c r="Q53">
         <v>2</v>
       </c>
-      <c r="R53" t="str">
+      <c r="R53">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="T53" t="str">
+      <c r="T53">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -3796,21 +3796,21 @@
       <c r="Q54">
         <v>3</v>
       </c>
-      <c r="R54" t="str">
+      <c r="R54">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-      <c r="T54" t="str">
+      <c r="T54">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.18</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -3865,21 +3865,21 @@
       <c r="Q55">
         <v>4</v>
       </c>
-      <c r="R55" t="str">
+      <c r="R55">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="T55" t="str">
+      <c r="T55">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -3934,21 +3934,21 @@
       <c r="Q56">
         <v>1</v>
       </c>
-      <c r="R56" t="str">
+      <c r="R56">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="T56" t="str">
+      <c r="T56">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.89000000000000012</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -4003,21 +4003,21 @@
       <c r="Q57">
         <v>2</v>
       </c>
-      <c r="R57" t="str">
+      <c r="R57">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="T57" t="str">
+      <c r="T57">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.84</v>
       </c>
       <c r="U57" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -4072,21 +4072,21 @@
       <c r="Q58">
         <v>3</v>
       </c>
-      <c r="R58" t="str">
+      <c r="R58">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <f t="shared" si="1"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="T58" t="str">
+      <c r="T58">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.6700000000000004</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -4141,21 +4141,21 @@
       <c r="Q59">
         <v>4</v>
       </c>
-      <c r="R59" t="str">
+      <c r="R59">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="T59" t="str">
+      <c r="T59">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.68</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -4210,21 +4210,21 @@
       <c r="Q60">
         <v>1</v>
       </c>
-      <c r="R60" t="str">
+      <c r="R60">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <f t="shared" si="1"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T60" t="str">
+      <c r="T60">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.97000000000000008</v>
       </c>
       <c r="U60" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -4279,21 +4279,21 @@
       <c r="Q61">
         <v>2</v>
       </c>
-      <c r="R61" t="str">
+      <c r="R61">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <f t="shared" si="1"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="T61" t="str">
+      <c r="T61">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.8800000000000001</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -4348,21 +4348,21 @@
       <c r="Q62">
         <v>3</v>
       </c>
-      <c r="R62" t="str">
+      <c r="R62">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T62" t="str">
+      <c r="T62">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.91</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -4417,21 +4417,21 @@
       <c r="Q63">
         <v>4</v>
       </c>
-      <c r="R63" t="str">
+      <c r="R63">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="T63" t="str">
+      <c r="T63">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -4486,21 +4486,21 @@
       <c r="Q64">
         <v>1</v>
       </c>
-      <c r="R64" t="str">
+      <c r="R64">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S64">
         <f t="shared" si="1"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T64" t="str">
+      <c r="T64">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -4555,21 +4555,21 @@
       <c r="Q65">
         <v>2</v>
       </c>
-      <c r="R65" t="str">
+      <c r="R65">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S65">
         <f t="shared" si="1"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T65" t="str">
+      <c r="T65">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -4624,21 +4624,21 @@
       <c r="Q66">
         <v>3</v>
       </c>
-      <c r="R66" t="str">
+      <c r="R66">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S66">
         <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
-      <c r="T66" t="str">
+      <c r="T66">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.06</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -4693,21 +4693,21 @@
       <c r="Q67">
         <v>4</v>
       </c>
-      <c r="R67" t="str">
+      <c r="R67">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <f t="shared" si="1"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T67" t="str">
+      <c r="T67">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -4762,21 +4762,21 @@
       <c r="Q68">
         <v>1</v>
       </c>
-      <c r="R68" t="str">
+      <c r="R68">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="T68" t="str">
+      <c r="T68">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>1.04</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -4831,21 +4831,21 @@
       <c r="Q69">
         <v>2</v>
       </c>
-      <c r="R69" t="str">
+      <c r="R69">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
-      <c r="T69" t="str">
+      <c r="T69">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>2.14</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -4900,21 +4900,21 @@
       <c r="Q70">
         <v>3</v>
       </c>
-      <c r="R70" t="str">
+      <c r="R70">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
-      <c r="T70" t="str">
+      <c r="T70">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>3.21</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -4969,21 +4969,21 @@
       <c r="Q71">
         <v>4</v>
       </c>
-      <c r="R71" t="str">
+      <c r="R71">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="T71" t="str">
+      <c r="T71">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>4.16</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -5038,21 +5038,21 @@
       <c r="Q72">
         <v>1</v>
       </c>
-      <c r="R72" t="str">
+      <c r="R72">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <f t="shared" si="1"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="T72" t="str">
+      <c r="T72">
         <f t="shared" si="2"/>
-        <v>Invalid</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="3"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -5107,21 +5107,21 @@
       <c r="Q73">
         <v>2</v>
       </c>
-      <c r="R73" t="str">
-        <f t="shared" ref="R73:R136" si="4">IF(IF(A73&gt;3,1,0)+IF(C73&gt;3,1,0)+IF(E73&gt;3,1,0)+IF(G73&gt;3,1,0)+IF(I73&gt;3,1,0)+IF(K73&gt;3,1,0)&gt;0,"ERROR",0)</f>
-        <v>ERROR</v>
+      <c r="R73">
+        <f t="shared" ref="R73:R136" si="4">IF(IF(B73*C73&gt;3,1,0)+IF(D73*E73&gt;3,1,0)+IF(F73*G73&gt;3,1,0)+IF(H73*I73&gt;3,1,0)+IF(J73*K73&gt;3,1,0)+IF(L73*M73&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <v>0</v>
       </c>
       <c r="S73">
         <f t="shared" ref="S73:S136" si="5">0.92+M73*0.03+N73*0.05-O73*0.02+IF(P73&gt;2,P73*0.005,0)</f>
         <v>0.9</v>
       </c>
-      <c r="T73" t="str">
+      <c r="T73">
         <f t="shared" ref="T73:T136" si="6">IF(R73=0,Q73*S73,"Invalid")</f>
-        <v>Invalid</v>
+        <v>1.8</v>
       </c>
       <c r="U73" t="str">
         <f t="shared" ref="U73:U136" si="7">IF(T73&gt;80,"Critical",IF(T73&gt;60, "Risky",IF(T73&gt;40,"Moderate",IF(T73&gt;20, "Low Risk", IF(T73&gt;=0,"No Risk","Invalid")))))</f>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -5176,21 +5176,21 @@
       <c r="Q74">
         <v>3</v>
       </c>
-      <c r="R74" t="str">
+      <c r="R74">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S74">
         <f t="shared" si="5"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="T74" t="str">
+      <c r="T74">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.6100000000000003</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -5245,21 +5245,21 @@
       <c r="Q75">
         <v>4</v>
       </c>
-      <c r="R75" t="str">
+      <c r="R75">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S75">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T75" t="str">
+      <c r="T75">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.6</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -5314,21 +5314,21 @@
       <c r="Q76">
         <v>1</v>
       </c>
-      <c r="R76" t="str">
+      <c r="R76">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <f t="shared" si="5"/>
         <v>0.92</v>
       </c>
-      <c r="T76" t="str">
+      <c r="T76">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.92</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -5383,21 +5383,21 @@
       <c r="Q77">
         <v>2</v>
       </c>
-      <c r="R77" t="str">
+      <c r="R77">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S77">
         <f t="shared" si="5"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T77" t="str">
+      <c r="T77">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="U77" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -5452,21 +5452,21 @@
       <c r="Q78">
         <v>3</v>
       </c>
-      <c r="R78" t="str">
+      <c r="R78">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <f t="shared" si="5"/>
         <v>0.92</v>
       </c>
-      <c r="T78" t="str">
+      <c r="T78">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="U78" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -5521,21 +5521,21 @@
       <c r="Q79">
         <v>4</v>
       </c>
-      <c r="R79" t="str">
+      <c r="R79">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <f t="shared" si="5"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T79" t="str">
+      <c r="T79">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -5590,21 +5590,21 @@
       <c r="Q80">
         <v>1</v>
       </c>
-      <c r="R80" t="str">
+      <c r="R80">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S80">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T80" t="str">
+      <c r="T80">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1</v>
       </c>
       <c r="U80" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -5659,21 +5659,21 @@
       <c r="Q81">
         <v>2</v>
       </c>
-      <c r="R81" t="str">
+      <c r="R81">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <f t="shared" si="5"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T81" t="str">
+      <c r="T81">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.9400000000000002</v>
       </c>
       <c r="U81" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -5728,21 +5728,21 @@
       <c r="Q82">
         <v>3</v>
       </c>
-      <c r="R82" t="str">
+      <c r="R82">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S82">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T82" t="str">
+      <c r="T82">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -5797,21 +5797,21 @@
       <c r="Q83">
         <v>4</v>
       </c>
-      <c r="R83" t="str">
+      <c r="R83">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S83">
         <f t="shared" si="5"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T83" t="str">
+      <c r="T83">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.8800000000000003</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -5866,21 +5866,21 @@
       <c r="Q84">
         <v>1</v>
       </c>
-      <c r="R84" t="str">
+      <c r="R84">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S84">
         <f t="shared" si="5"/>
         <v>1.02</v>
       </c>
-      <c r="T84" t="str">
+      <c r="T84">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.02</v>
       </c>
       <c r="U84" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -5935,21 +5935,21 @@
       <c r="Q85">
         <v>2</v>
       </c>
-      <c r="R85" t="str">
+      <c r="R85">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S85">
         <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
-      <c r="T85" t="str">
+      <c r="T85">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.1</v>
       </c>
       <c r="U85" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -6004,21 +6004,21 @@
       <c r="Q86">
         <v>3</v>
       </c>
-      <c r="R86" t="str">
+      <c r="R86">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S86">
         <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
-      <c r="T86" t="str">
+      <c r="T86">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="U86" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6073,21 +6073,21 @@
       <c r="Q87">
         <v>4</v>
       </c>
-      <c r="R87" t="str">
+      <c r="R87">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S87">
         <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
-      <c r="T87" t="str">
+      <c r="T87">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.2</v>
       </c>
       <c r="U87" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -6142,21 +6142,21 @@
       <c r="Q88">
         <v>1</v>
       </c>
-      <c r="R88" t="str">
+      <c r="R88">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S88">
         <f t="shared" si="5"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T88" t="str">
+      <c r="T88">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="U88" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6211,21 +6211,21 @@
       <c r="Q89">
         <v>2</v>
       </c>
-      <c r="R89" t="str">
+      <c r="R89">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S89">
         <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
-      <c r="T89" t="str">
+      <c r="T89">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.76</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -6280,21 +6280,21 @@
       <c r="Q90">
         <v>3</v>
       </c>
-      <c r="R90" t="str">
+      <c r="R90">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S90">
         <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
-      <c r="T90" t="str">
+      <c r="T90">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.64</v>
       </c>
       <c r="U90" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -6349,21 +6349,21 @@
       <c r="Q91">
         <v>4</v>
       </c>
-      <c r="R91" t="str">
+      <c r="R91">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S91">
         <f t="shared" si="5"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T91" t="str">
+      <c r="T91">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -6418,21 +6418,21 @@
       <c r="Q92">
         <v>1</v>
       </c>
-      <c r="R92" t="str">
+      <c r="R92">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T92" t="str">
+      <c r="T92">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.9</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6487,21 +6487,21 @@
       <c r="Q93">
         <v>2</v>
       </c>
-      <c r="R93" t="str">
+      <c r="R93">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <f t="shared" si="5"/>
         <v>0.93</v>
       </c>
-      <c r="T93" t="str">
+      <c r="T93">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.86</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -6556,21 +6556,21 @@
       <c r="Q94">
         <v>3</v>
       </c>
-      <c r="R94" t="str">
+      <c r="R94">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S94">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T94" t="str">
+      <c r="T94">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.7</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -6625,21 +6625,21 @@
       <c r="Q95">
         <v>4</v>
       </c>
-      <c r="R95" t="str">
+      <c r="R95">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T95" t="str">
+      <c r="T95">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.6</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -6694,21 +6694,21 @@
       <c r="Q96">
         <v>1</v>
       </c>
-      <c r="R96" t="str">
+      <c r="R96">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S96">
         <f t="shared" si="5"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T96" t="str">
+      <c r="T96">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="U96" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6763,21 +6763,21 @@
       <c r="Q97">
         <v>2</v>
       </c>
-      <c r="R97" t="str">
+      <c r="R97">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <f t="shared" si="5"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T97" t="str">
+      <c r="T97">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="U97" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -6832,21 +6832,21 @@
       <c r="Q98">
         <v>3</v>
       </c>
-      <c r="R98" t="str">
+      <c r="R98">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S98">
         <f t="shared" si="5"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T98" t="str">
+      <c r="T98">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.85</v>
       </c>
       <c r="U98" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6901,21 +6901,21 @@
       <c r="Q99">
         <v>4</v>
       </c>
-      <c r="R99" t="str">
+      <c r="R99">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S99">
         <f t="shared" si="5"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T99" t="str">
+      <c r="T99">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.9200000000000004</v>
       </c>
       <c r="U99" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -6970,21 +6970,21 @@
       <c r="Q100">
         <v>1</v>
       </c>
-      <c r="R100" t="str">
+      <c r="R100">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S100">
         <f t="shared" si="5"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="T100" t="str">
+      <c r="T100">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.0300000000000002</v>
       </c>
       <c r="U100" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7039,21 +7039,21 @@
       <c r="Q101">
         <v>2</v>
       </c>
-      <c r="R101" t="str">
+      <c r="R101">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S101">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T101" t="str">
+      <c r="T101">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -7108,21 +7108,21 @@
       <c r="Q102">
         <v>3</v>
       </c>
-      <c r="R102" t="str">
+      <c r="R102">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S102">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T102" t="str">
+      <c r="T102">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -7177,21 +7177,21 @@
       <c r="Q103">
         <v>4</v>
       </c>
-      <c r="R103" t="str">
+      <c r="R103">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S103">
         <f t="shared" si="5"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="T103" t="str">
+      <c r="T103">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.120000000000001</v>
       </c>
       <c r="U103" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -7246,21 +7246,21 @@
       <c r="Q104">
         <v>3</v>
       </c>
-      <c r="R104" t="str">
+      <c r="R104">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S104">
         <f t="shared" si="5"/>
         <v>1.04</v>
       </c>
-      <c r="T104" t="str">
+      <c r="T104">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.12</v>
       </c>
       <c r="U104" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7315,21 +7315,21 @@
       <c r="Q105">
         <v>4</v>
       </c>
-      <c r="R105" t="str">
+      <c r="R105">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S105">
         <f t="shared" si="5"/>
         <v>1.03</v>
       </c>
-      <c r="T105" t="str">
+      <c r="T105">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.12</v>
       </c>
       <c r="U105" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -7384,21 +7384,21 @@
       <c r="Q106">
         <v>2</v>
       </c>
-      <c r="R106" t="str">
+      <c r="R106">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S106">
         <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
-      <c r="T106" t="str">
+      <c r="T106">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.98</v>
       </c>
       <c r="U106" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7453,21 +7453,21 @@
       <c r="Q107">
         <v>4</v>
       </c>
-      <c r="R107" t="str">
+      <c r="R107">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S107">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T107" t="str">
+      <c r="T107">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.6</v>
       </c>
       <c r="U107" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -7522,21 +7522,21 @@
       <c r="Q108">
         <v>1</v>
       </c>
-      <c r="R108" t="str">
+      <c r="R108">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S108">
         <f t="shared" si="5"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T108" t="str">
+      <c r="T108">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.97000000000000008</v>
       </c>
       <c r="U108" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -7591,21 +7591,21 @@
       <c r="Q109">
         <v>1</v>
       </c>
-      <c r="R109" t="str">
+      <c r="R109">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S109">
         <f t="shared" si="5"/>
         <v>1.06</v>
       </c>
-      <c r="T109" t="str">
+      <c r="T109">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.06</v>
       </c>
       <c r="U109" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -7660,21 +7660,21 @@
       <c r="Q110">
         <v>1</v>
       </c>
-      <c r="R110" t="str">
+      <c r="R110">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S110">
         <f t="shared" si="5"/>
         <v>0.92</v>
       </c>
-      <c r="T110" t="str">
+      <c r="T110">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.92</v>
       </c>
       <c r="U110" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -7729,21 +7729,21 @@
       <c r="Q111">
         <v>2</v>
       </c>
-      <c r="R111" t="str">
+      <c r="R111">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S111">
         <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
-      <c r="T111" t="str">
+      <c r="T111">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.16</v>
       </c>
       <c r="U111" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -7798,21 +7798,21 @@
       <c r="Q112">
         <v>2</v>
       </c>
-      <c r="R112" t="str">
+      <c r="R112">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S112">
         <f t="shared" si="5"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T112" t="str">
+      <c r="T112">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.9600000000000002</v>
       </c>
       <c r="U112" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -7867,21 +7867,21 @@
       <c r="Q113">
         <v>1</v>
       </c>
-      <c r="R113" t="str">
+      <c r="R113">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S113">
         <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
-      <c r="T113" t="str">
+      <c r="T113">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -7936,21 +7936,21 @@
       <c r="Q114">
         <v>2</v>
       </c>
-      <c r="R114" t="str">
+      <c r="R114">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S114">
         <f t="shared" si="5"/>
         <v>0.93</v>
       </c>
-      <c r="T114" t="str">
+      <c r="T114">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.86</v>
       </c>
       <c r="U114" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -8005,21 +8005,21 @@
       <c r="Q115">
         <v>4</v>
       </c>
-      <c r="R115" t="str">
+      <c r="R115">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S115">
         <f t="shared" si="5"/>
         <v>1.04</v>
       </c>
-      <c r="T115" t="str">
+      <c r="T115">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.16</v>
       </c>
       <c r="U115" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -8074,21 +8074,21 @@
       <c r="Q116">
         <v>3</v>
       </c>
-      <c r="R116" t="str">
+      <c r="R116">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S116">
         <f t="shared" si="5"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="T116" t="str">
+      <c r="T116">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="U116" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -8143,21 +8143,21 @@
       <c r="Q117">
         <v>1</v>
       </c>
-      <c r="R117" t="str">
+      <c r="R117">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S117">
         <f t="shared" si="5"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T117" t="str">
+      <c r="T117">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.97000000000000008</v>
       </c>
       <c r="U117" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -8212,21 +8212,21 @@
       <c r="Q118">
         <v>3</v>
       </c>
-      <c r="R118" t="str">
+      <c r="R118">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S118">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T118" t="str">
+      <c r="T118">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="U118" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8281,21 +8281,21 @@
       <c r="Q119">
         <v>3</v>
       </c>
-      <c r="R119" t="str">
+      <c r="R119">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S119">
         <f t="shared" si="5"/>
         <v>1.02</v>
       </c>
-      <c r="T119" t="str">
+      <c r="T119">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.06</v>
       </c>
       <c r="U119" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -8350,21 +8350,21 @@
       <c r="Q120">
         <v>1</v>
       </c>
-      <c r="R120" t="str">
+      <c r="R120">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S120">
         <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
-      <c r="T120" t="str">
+      <c r="T120">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.98</v>
       </c>
       <c r="U120" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8419,21 +8419,21 @@
       <c r="Q121">
         <v>3</v>
       </c>
-      <c r="R121" t="str">
+      <c r="R121">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S121">
         <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
-      <c r="T121" t="str">
+      <c r="T121">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.94</v>
       </c>
       <c r="U121" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -8488,21 +8488,21 @@
       <c r="Q122">
         <v>4</v>
       </c>
-      <c r="R122" t="str">
+      <c r="R122">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S122">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T122" t="str">
+      <c r="T122">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4</v>
       </c>
       <c r="U122" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -8557,21 +8557,21 @@
       <c r="Q123">
         <v>1</v>
       </c>
-      <c r="R123" t="str">
+      <c r="R123">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S123">
         <f t="shared" si="5"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T123" t="str">
+      <c r="T123">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="U123" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -8626,21 +8626,21 @@
       <c r="Q124">
         <v>1</v>
       </c>
-      <c r="R124" t="str">
+      <c r="R124">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S124">
         <f t="shared" si="5"/>
         <v>0.93</v>
       </c>
-      <c r="T124" t="str">
+      <c r="T124">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>0.93</v>
       </c>
       <c r="U124" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -8695,21 +8695,21 @@
       <c r="Q125">
         <v>2</v>
       </c>
-      <c r="R125" t="str">
+      <c r="R125">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S125">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T125" t="str">
+      <c r="T125">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.8</v>
       </c>
       <c r="U125" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -8764,21 +8764,21 @@
       <c r="Q126">
         <v>4</v>
       </c>
-      <c r="R126" t="str">
+      <c r="R126">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S126">
         <f t="shared" si="5"/>
         <v>1.02</v>
       </c>
-      <c r="T126" t="str">
+      <c r="T126">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.08</v>
       </c>
       <c r="U126" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -8833,21 +8833,21 @@
       <c r="Q127">
         <v>4</v>
       </c>
-      <c r="R127" t="str">
+      <c r="R127">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S127">
         <f t="shared" si="5"/>
         <v>1.04</v>
       </c>
-      <c r="T127" t="str">
+      <c r="T127">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.16</v>
       </c>
       <c r="U127" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -8902,21 +8902,21 @@
       <c r="Q128">
         <v>2</v>
       </c>
-      <c r="R128" t="str">
+      <c r="R128">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S128">
         <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
-      <c r="T128" t="str">
+      <c r="T128">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>2.02</v>
       </c>
       <c r="U128" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -8971,21 +8971,21 @@
       <c r="Q129">
         <v>2</v>
       </c>
-      <c r="R129" t="str">
+      <c r="R129">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S129">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="T129" t="str">
+      <c r="T129">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.8</v>
       </c>
       <c r="U129" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -9040,21 +9040,21 @@
       <c r="Q130">
         <v>4</v>
       </c>
-      <c r="R130" t="str">
+      <c r="R130">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S130">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T130" t="str">
+      <c r="T130">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U130" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
@@ -9109,21 +9109,21 @@
       <c r="Q131">
         <v>2</v>
       </c>
-      <c r="R131" t="str">
+      <c r="R131">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S131">
         <f t="shared" si="5"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T131" t="str">
+      <c r="T131">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="U131" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -9178,21 +9178,21 @@
       <c r="Q132">
         <v>4</v>
       </c>
-      <c r="R132" t="str">
+      <c r="R132">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S132">
         <f t="shared" si="5"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="T132" t="str">
+      <c r="T132">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="U132" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -9316,21 +9316,21 @@
       <c r="Q134">
         <v>2</v>
       </c>
-      <c r="R134" t="str">
+      <c r="R134">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S134">
         <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
-      <c r="T134" t="str">
+      <c r="T134">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>1.96</v>
       </c>
       <c r="U134" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -9385,21 +9385,21 @@
       <c r="Q135">
         <v>3</v>
       </c>
-      <c r="R135" t="str">
+      <c r="R135">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S135">
         <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
-      <c r="T135" t="str">
+      <c r="T135">
         <f t="shared" si="6"/>
-        <v>Invalid</v>
+        <v>3.0300000000000002</v>
       </c>
       <c r="U135" t="str">
         <f t="shared" si="7"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>2</v>
       </c>
       <c r="R137" t="str">
-        <f t="shared" ref="R137:R200" si="8">IF(IF(A137&gt;3,1,0)+IF(C137&gt;3,1,0)+IF(E137&gt;3,1,0)+IF(G137&gt;3,1,0)+IF(I137&gt;3,1,0)+IF(K137&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <f t="shared" ref="R137:R200" si="8">IF(IF(B137*C137&gt;3,1,0)+IF(D137*E137&gt;3,1,0)+IF(F137*G137&gt;3,1,0)+IF(H137*I137&gt;3,1,0)+IF(J137*K137&gt;3,1,0)+IF(L137*M137&gt;3,1,0)&gt;0,"ERROR",0)</f>
         <v>ERROR</v>
       </c>
       <c r="S137">
@@ -9592,21 +9592,21 @@
       <c r="Q138">
         <v>1</v>
       </c>
-      <c r="R138" t="str">
+      <c r="R138">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S138">
         <f t="shared" si="9"/>
         <v>0.88</v>
       </c>
-      <c r="T138" t="str">
+      <c r="T138">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.88</v>
       </c>
       <c r="U138" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -9730,21 +9730,21 @@
       <c r="Q140">
         <v>4</v>
       </c>
-      <c r="R140" t="str">
+      <c r="R140">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S140">
         <f t="shared" si="9"/>
         <v>1.08</v>
       </c>
-      <c r="T140" t="str">
+      <c r="T140">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>4.32</v>
       </c>
       <c r="U140" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -9799,21 +9799,21 @@
       <c r="Q141">
         <v>1</v>
       </c>
-      <c r="R141" t="str">
+      <c r="R141">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S141">
         <f t="shared" si="9"/>
         <v>0.91000000000000014</v>
       </c>
-      <c r="T141" t="str">
+      <c r="T141">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.91000000000000014</v>
       </c>
       <c r="U141" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -9937,21 +9937,21 @@
       <c r="Q143">
         <v>3</v>
       </c>
-      <c r="R143" t="str">
+      <c r="R143">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S143">
         <f t="shared" si="9"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T143" t="str">
+      <c r="T143">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>2.91</v>
       </c>
       <c r="U143" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -10006,21 +10006,21 @@
       <c r="Q144">
         <v>4</v>
       </c>
-      <c r="R144" t="str">
+      <c r="R144">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S144">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T144" t="str">
+      <c r="T144">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>4</v>
       </c>
       <c r="U144" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -10075,21 +10075,21 @@
       <c r="Q145">
         <v>4</v>
       </c>
-      <c r="R145" t="str">
+      <c r="R145">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S145">
         <f t="shared" si="9"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="T145" t="str">
+      <c r="T145">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="U145" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -10282,21 +10282,21 @@
       <c r="Q148">
         <v>1</v>
       </c>
-      <c r="R148" t="str">
+      <c r="R148">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S148">
         <f t="shared" si="9"/>
         <v>0.99</v>
       </c>
-      <c r="T148" t="str">
+      <c r="T148">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.99</v>
       </c>
       <c r="U148" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -10351,21 +10351,21 @@
       <c r="Q149">
         <v>1</v>
       </c>
-      <c r="R149" t="str">
+      <c r="R149">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S149">
         <f t="shared" si="9"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T149" t="str">
+      <c r="T149">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="U149" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
@@ -10972,21 +10972,21 @@
       <c r="Q158">
         <v>3</v>
       </c>
-      <c r="R158" t="str">
+      <c r="R158">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S158">
         <f t="shared" si="9"/>
         <v>1.06</v>
       </c>
-      <c r="T158" t="str">
+      <c r="T158">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>3.18</v>
       </c>
       <c r="U158" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
@@ -11179,21 +11179,21 @@
       <c r="Q161">
         <v>4</v>
       </c>
-      <c r="R161" t="str">
+      <c r="R161">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S161">
         <f t="shared" si="9"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="T161" t="str">
+      <c r="T161">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>3.5600000000000005</v>
       </c>
       <c r="U161" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11248,21 +11248,21 @@
       <c r="Q162">
         <v>4</v>
       </c>
-      <c r="R162" t="str">
+      <c r="R162">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S162">
         <f t="shared" si="9"/>
         <v>1.03</v>
       </c>
-      <c r="T162" t="str">
+      <c r="T162">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>4.12</v>
       </c>
       <c r="U162" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
@@ -11317,21 +11317,21 @@
       <c r="Q163">
         <v>2</v>
       </c>
-      <c r="R163" t="str">
+      <c r="R163">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S163">
         <f t="shared" si="9"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="T163" t="str">
+      <c r="T163">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>2.0600000000000005</v>
       </c>
       <c r="U163" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
@@ -11386,21 +11386,21 @@
       <c r="Q164">
         <v>1</v>
       </c>
-      <c r="R164" t="str">
+      <c r="R164">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S164">
         <f t="shared" si="9"/>
         <v>1.03</v>
       </c>
-      <c r="T164" t="str">
+      <c r="T164">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>1.03</v>
       </c>
       <c r="U164" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -11455,21 +11455,21 @@
       <c r="Q165">
         <v>3</v>
       </c>
-      <c r="R165" t="str">
+      <c r="R165">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S165">
         <f t="shared" si="9"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T165" t="str">
+      <c r="T165">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>2.97</v>
       </c>
       <c r="U165" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11524,21 +11524,21 @@
       <c r="Q166">
         <v>3</v>
       </c>
-      <c r="R166" t="str">
+      <c r="R166">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S166">
         <f t="shared" si="9"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="T166" t="str">
+      <c r="T166">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>3.2700000000000005</v>
       </c>
       <c r="U166" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -11593,21 +11593,21 @@
       <c r="Q167">
         <v>2</v>
       </c>
-      <c r="R167" t="str">
+      <c r="R167">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S167">
         <f t="shared" si="9"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T167" t="str">
+      <c r="T167">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="U167" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -11800,21 +11800,21 @@
       <c r="Q170">
         <v>2</v>
       </c>
-      <c r="R170" t="str">
+      <c r="R170">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S170">
         <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
-      <c r="T170" t="str">
+      <c r="T170">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>1.96</v>
       </c>
       <c r="U170" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11938,21 +11938,21 @@
       <c r="Q172">
         <v>4</v>
       </c>
-      <c r="R172" t="str">
+      <c r="R172">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S172">
         <f t="shared" si="9"/>
         <v>0.92</v>
       </c>
-      <c r="T172" t="str">
+      <c r="T172">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>3.68</v>
       </c>
       <c r="U172" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -12007,21 +12007,21 @@
       <c r="Q173">
         <v>3</v>
       </c>
-      <c r="R173" t="str">
+      <c r="R173">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S173">
         <f t="shared" si="9"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T173" t="str">
+      <c r="T173">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>2.85</v>
       </c>
       <c r="U173" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -12076,21 +12076,21 @@
       <c r="Q174">
         <v>1</v>
       </c>
-      <c r="R174" t="str">
+      <c r="R174">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S174">
         <f t="shared" si="9"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T174" t="str">
+      <c r="T174">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="U174" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -12283,21 +12283,21 @@
       <c r="Q177">
         <v>1</v>
       </c>
-      <c r="R177" t="str">
+      <c r="R177">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S177">
         <f t="shared" si="9"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T177" t="str">
+      <c r="T177">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="U177" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12421,21 +12421,21 @@
       <c r="Q179">
         <v>3</v>
       </c>
-      <c r="R179" t="str">
+      <c r="R179">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S179">
         <f t="shared" si="9"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="T179" t="str">
+      <c r="T179">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="U179" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12559,21 +12559,21 @@
       <c r="Q181">
         <v>1</v>
       </c>
-      <c r="R181" t="str">
+      <c r="R181">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S181">
         <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
-      <c r="T181" t="str">
+      <c r="T181">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>0.98</v>
       </c>
       <c r="U181" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12628,21 +12628,21 @@
       <c r="Q182">
         <v>4</v>
       </c>
-      <c r="R182" t="str">
+      <c r="R182">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S182">
         <f t="shared" si="9"/>
         <v>1.01</v>
       </c>
-      <c r="T182" t="str">
+      <c r="T182">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>4.04</v>
       </c>
       <c r="U182" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12766,21 +12766,21 @@
       <c r="Q184">
         <v>3</v>
       </c>
-      <c r="R184" t="str">
+      <c r="R184">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S184">
         <f t="shared" si="9"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="T184" t="str">
+      <c r="T184">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>3.0900000000000007</v>
       </c>
       <c r="U184" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -13042,21 +13042,21 @@
       <c r="Q188">
         <v>3</v>
       </c>
-      <c r="R188" t="str">
+      <c r="R188">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S188">
         <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
-      <c r="T188" t="str">
+      <c r="T188">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>2.94</v>
       </c>
       <c r="U188" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -13180,21 +13180,21 @@
       <c r="Q190">
         <v>1</v>
       </c>
-      <c r="R190" t="str">
+      <c r="R190">
         <f t="shared" si="8"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S190">
         <f t="shared" si="9"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="T190" t="str">
+      <c r="T190">
         <f t="shared" si="10"/>
-        <v>Invalid</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="U190" t="str">
         <f t="shared" si="11"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -13940,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="R201" t="str">
-        <f t="shared" ref="R201:R264" si="12">IF(IF(A201&gt;3,1,0)+IF(C201&gt;3,1,0)+IF(E201&gt;3,1,0)+IF(G201&gt;3,1,0)+IF(I201&gt;3,1,0)+IF(K201&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <f t="shared" ref="R201:R264" si="12">IF(IF(B201*C201&gt;3,1,0)+IF(D201*E201&gt;3,1,0)+IF(F201*G201&gt;3,1,0)+IF(H201*I201&gt;3,1,0)+IF(J201*K201&gt;3,1,0)+IF(L201*M201&gt;3,1,0)&gt;0,"ERROR",0)</f>
         <v>ERROR</v>
       </c>
       <c r="S201">
@@ -14560,21 +14560,21 @@
       <c r="Q210">
         <v>1</v>
       </c>
-      <c r="R210" t="str">
+      <c r="R210">
         <f t="shared" si="12"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S210">
         <f t="shared" si="13"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T210" t="str">
+      <c r="T210">
         <f t="shared" si="14"/>
-        <v>Invalid</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="U210" t="str">
         <f t="shared" si="15"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -17734,21 +17734,21 @@
       <c r="Q256">
         <v>2</v>
       </c>
-      <c r="R256" t="str">
+      <c r="R256">
         <f t="shared" si="12"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S256">
         <f t="shared" si="13"/>
         <v>1.04</v>
       </c>
-      <c r="T256" t="str">
+      <c r="T256">
         <f t="shared" si="14"/>
-        <v>Invalid</v>
+        <v>2.08</v>
       </c>
       <c r="U256" t="str">
         <f t="shared" si="15"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17803,21 +17803,21 @@
       <c r="Q257">
         <v>4</v>
       </c>
-      <c r="R257" t="str">
+      <c r="R257">
         <f t="shared" si="12"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S257">
         <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
-      <c r="T257" t="str">
+      <c r="T257">
         <f t="shared" si="14"/>
-        <v>Invalid</v>
+        <v>3.84</v>
       </c>
       <c r="U257" t="str">
         <f t="shared" si="15"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -18356,7 +18356,7 @@
         <v>4</v>
       </c>
       <c r="R265" t="str">
-        <f t="shared" ref="R265:R328" si="16">IF(IF(A265&gt;3,1,0)+IF(C265&gt;3,1,0)+IF(E265&gt;3,1,0)+IF(G265&gt;3,1,0)+IF(I265&gt;3,1,0)+IF(K265&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <f t="shared" ref="R265:R328" si="16">IF(IF(B265*C265&gt;3,1,0)+IF(D265*E265&gt;3,1,0)+IF(F265*G265&gt;3,1,0)+IF(H265*I265&gt;3,1,0)+IF(J265*K265&gt;3,1,0)+IF(L265*M265&gt;3,1,0)&gt;0,"ERROR",0)</f>
         <v>ERROR</v>
       </c>
       <c r="S265">
@@ -18769,21 +18769,21 @@
       <c r="Q271">
         <v>1</v>
       </c>
-      <c r="R271" t="str">
+      <c r="R271">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S271">
         <f t="shared" si="17"/>
         <v>0.92</v>
       </c>
-      <c r="T271" t="str">
+      <c r="T271">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.92</v>
       </c>
       <c r="U271" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18838,21 +18838,21 @@
       <c r="Q272">
         <v>2</v>
       </c>
-      <c r="R272" t="str">
+      <c r="R272">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S272">
         <f t="shared" si="17"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T272" t="str">
+      <c r="T272">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="U272" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
@@ -19114,21 +19114,21 @@
       <c r="Q276">
         <v>1</v>
       </c>
-      <c r="R276" t="str">
+      <c r="R276">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S276">
         <f t="shared" si="17"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="T276" t="str">
+      <c r="T276">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="U276" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.25">
@@ -19183,21 +19183,21 @@
       <c r="Q277">
         <v>4</v>
       </c>
-      <c r="R277" t="str">
+      <c r="R277">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S277">
         <f t="shared" si="17"/>
         <v>1.04</v>
       </c>
-      <c r="T277" t="str">
+      <c r="T277">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>4.16</v>
       </c>
       <c r="U277" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
@@ -19321,21 +19321,21 @@
       <c r="Q279">
         <v>3</v>
       </c>
-      <c r="R279" t="str">
+      <c r="R279">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S279">
         <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
-      <c r="T279" t="str">
+      <c r="T279">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.7</v>
       </c>
       <c r="U279" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.25">
@@ -19528,21 +19528,21 @@
       <c r="Q282">
         <v>1</v>
       </c>
-      <c r="R282" t="str">
+      <c r="R282">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S282">
         <f t="shared" si="17"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T282" t="str">
+      <c r="T282">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="U282" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.25">
@@ -19597,21 +19597,21 @@
       <c r="Q283">
         <v>4</v>
       </c>
-      <c r="R283" t="str">
+      <c r="R283">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S283">
         <f t="shared" si="17"/>
         <v>0.92</v>
       </c>
-      <c r="T283" t="str">
+      <c r="T283">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.68</v>
       </c>
       <c r="U283" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.25">
@@ -19666,21 +19666,21 @@
       <c r="Q284">
         <v>2</v>
       </c>
-      <c r="R284" t="str">
+      <c r="R284">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S284">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T284" t="str">
+      <c r="T284">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2</v>
       </c>
       <c r="U284" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
@@ -19873,21 +19873,21 @@
       <c r="Q287">
         <v>1</v>
       </c>
-      <c r="R287" t="str">
+      <c r="R287">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S287">
         <f t="shared" si="17"/>
         <v>0.98</v>
       </c>
-      <c r="T287" t="str">
+      <c r="T287">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.98</v>
       </c>
       <c r="U287" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
@@ -20011,21 +20011,21 @@
       <c r="Q289">
         <v>4</v>
       </c>
-      <c r="R289" t="str">
+      <c r="R289">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S289">
         <f t="shared" si="17"/>
         <v>0.98</v>
       </c>
-      <c r="T289" t="str">
+      <c r="T289">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.92</v>
       </c>
       <c r="U289" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
@@ -20080,21 +20080,21 @@
       <c r="Q290">
         <v>2</v>
       </c>
-      <c r="R290" t="str">
+      <c r="R290">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S290">
         <f t="shared" si="17"/>
         <v>1.06</v>
       </c>
-      <c r="T290" t="str">
+      <c r="T290">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.12</v>
       </c>
       <c r="U290" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
@@ -20149,21 +20149,21 @@
       <c r="Q291">
         <v>1</v>
       </c>
-      <c r="R291" t="str">
+      <c r="R291">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S291">
         <f t="shared" si="17"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="T291" t="str">
+      <c r="T291">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.89000000000000012</v>
       </c>
       <c r="U291" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
@@ -20218,21 +20218,21 @@
       <c r="Q292">
         <v>3</v>
       </c>
-      <c r="R292" t="str">
+      <c r="R292">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S292">
         <f t="shared" si="17"/>
         <v>0.98</v>
       </c>
-      <c r="T292" t="str">
+      <c r="T292">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.94</v>
       </c>
       <c r="U292" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
@@ -20287,21 +20287,21 @@
       <c r="Q293">
         <v>3</v>
       </c>
-      <c r="R293" t="str">
+      <c r="R293">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S293">
         <f t="shared" si="17"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T293" t="str">
+      <c r="T293">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="U293" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
@@ -20563,21 +20563,21 @@
       <c r="Q297">
         <v>1</v>
       </c>
-      <c r="R297" t="str">
+      <c r="R297">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S297">
         <f t="shared" si="17"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T297" t="str">
+      <c r="T297">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U297" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
@@ -20701,21 +20701,21 @@
       <c r="Q299">
         <v>4</v>
       </c>
-      <c r="R299" t="str">
+      <c r="R299">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S299">
         <f t="shared" si="17"/>
         <v>1.05</v>
       </c>
-      <c r="T299" t="str">
+      <c r="T299">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>4.2</v>
       </c>
       <c r="U299" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.25">
@@ -20839,21 +20839,21 @@
       <c r="Q301">
         <v>1</v>
       </c>
-      <c r="R301" t="str">
+      <c r="R301">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S301">
         <f t="shared" si="17"/>
         <v>1.05</v>
       </c>
-      <c r="T301" t="str">
+      <c r="T301">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>1.05</v>
       </c>
       <c r="U301" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
@@ -20908,21 +20908,21 @@
       <c r="Q302">
         <v>2</v>
       </c>
-      <c r="R302" t="str">
+      <c r="R302">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S302">
         <f t="shared" si="17"/>
         <v>1.04</v>
       </c>
-      <c r="T302" t="str">
+      <c r="T302">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.08</v>
       </c>
       <c r="U302" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
@@ -20977,21 +20977,21 @@
       <c r="Q303">
         <v>3</v>
       </c>
-      <c r="R303" t="str">
+      <c r="R303">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S303">
         <f t="shared" si="17"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T303" t="str">
+      <c r="T303">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.85</v>
       </c>
       <c r="U303" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
@@ -21046,21 +21046,21 @@
       <c r="Q304">
         <v>2</v>
       </c>
-      <c r="R304" t="str">
+      <c r="R304">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S304">
         <f t="shared" si="17"/>
         <v>1.06</v>
       </c>
-      <c r="T304" t="str">
+      <c r="T304">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.12</v>
       </c>
       <c r="U304" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.25">
@@ -21391,21 +21391,21 @@
       <c r="Q309">
         <v>3</v>
       </c>
-      <c r="R309" t="str">
+      <c r="R309">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S309">
         <f t="shared" si="17"/>
         <v>1.1300000000000001</v>
       </c>
-      <c r="T309" t="str">
+      <c r="T309">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.3900000000000006</v>
       </c>
       <c r="U309" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.25">
@@ -21460,21 +21460,21 @@
       <c r="Q310">
         <v>3</v>
       </c>
-      <c r="R310" t="str">
+      <c r="R310">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S310">
         <f t="shared" si="17"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T310" t="str">
+      <c r="T310">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2.9400000000000004</v>
       </c>
       <c r="U310" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.25">
@@ -21598,21 +21598,21 @@
       <c r="Q312">
         <v>2</v>
       </c>
-      <c r="R312" t="str">
+      <c r="R312">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S312">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T312" t="str">
+      <c r="T312">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2</v>
       </c>
       <c r="U312" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.25">
@@ -21736,21 +21736,21 @@
       <c r="Q314">
         <v>2</v>
       </c>
-      <c r="R314" t="str">
+      <c r="R314">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S314">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T314" t="str">
+      <c r="T314">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>2</v>
       </c>
       <c r="U314" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
@@ -21805,21 +21805,21 @@
       <c r="Q315">
         <v>4</v>
       </c>
-      <c r="R315" t="str">
+      <c r="R315">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S315">
         <f t="shared" si="17"/>
         <v>1.02</v>
       </c>
-      <c r="T315" t="str">
+      <c r="T315">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>4.08</v>
       </c>
       <c r="U315" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
@@ -22081,21 +22081,21 @@
       <c r="Q319">
         <v>1</v>
       </c>
-      <c r="R319" t="str">
+      <c r="R319">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S319">
         <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
-      <c r="T319" t="str">
+      <c r="T319">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.9</v>
       </c>
       <c r="U319" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.25">
@@ -22150,21 +22150,21 @@
       <c r="Q320">
         <v>1</v>
       </c>
-      <c r="R320" t="str">
+      <c r="R320">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S320">
         <f t="shared" si="17"/>
         <v>0.96</v>
       </c>
-      <c r="T320" t="str">
+      <c r="T320">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.96</v>
       </c>
       <c r="U320" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.25">
@@ -22219,21 +22219,21 @@
       <c r="Q321">
         <v>3</v>
       </c>
-      <c r="R321" t="str">
+      <c r="R321">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S321">
         <f t="shared" si="17"/>
         <v>1.02</v>
       </c>
-      <c r="T321" t="str">
+      <c r="T321">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.06</v>
       </c>
       <c r="U321" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
@@ -22288,21 +22288,21 @@
       <c r="Q322">
         <v>2</v>
       </c>
-      <c r="R322" t="str">
+      <c r="R322">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S322">
         <f t="shared" si="17"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T322" t="str">
+      <c r="T322">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="U322" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
@@ -22495,21 +22495,21 @@
       <c r="Q325">
         <v>4</v>
       </c>
-      <c r="R325" t="str">
+      <c r="R325">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S325">
         <f t="shared" si="17"/>
         <v>0.93</v>
       </c>
-      <c r="T325" t="str">
+      <c r="T325">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.72</v>
       </c>
       <c r="U325" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.25">
@@ -22564,21 +22564,21 @@
       <c r="Q326">
         <v>1</v>
       </c>
-      <c r="R326" t="str">
+      <c r="R326">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S326">
         <f t="shared" si="17"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T326" t="str">
+      <c r="T326">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="U326" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.25">
@@ -22633,21 +22633,21 @@
       <c r="Q327">
         <v>3</v>
       </c>
-      <c r="R327" t="str">
+      <c r="R327">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S327">
         <f t="shared" si="17"/>
         <v>1.04</v>
       </c>
-      <c r="T327" t="str">
+      <c r="T327">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>3.12</v>
       </c>
       <c r="U327" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.25">
@@ -22702,21 +22702,21 @@
       <c r="Q328">
         <v>1</v>
       </c>
-      <c r="R328" t="str">
+      <c r="R328">
         <f t="shared" si="16"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S328">
         <f t="shared" si="17"/>
         <v>0.96</v>
       </c>
-      <c r="T328" t="str">
+      <c r="T328">
         <f t="shared" si="18"/>
-        <v>Invalid</v>
+        <v>0.96</v>
       </c>
       <c r="U328" t="str">
         <f t="shared" si="19"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.25">
@@ -22772,7 +22772,7 @@
         <v>3</v>
       </c>
       <c r="R329" t="str">
-        <f t="shared" ref="R329:R392" si="20">IF(IF(A329&gt;3,1,0)+IF(C329&gt;3,1,0)+IF(E329&gt;3,1,0)+IF(G329&gt;3,1,0)+IF(I329&gt;3,1,0)+IF(K329&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <f t="shared" ref="R329:R392" si="20">IF(IF(B329*C329&gt;3,1,0)+IF(D329*E329&gt;3,1,0)+IF(F329*G329&gt;3,1,0)+IF(H329*I329&gt;3,1,0)+IF(J329*K329&gt;3,1,0)+IF(L329*M329&gt;3,1,0)&gt;0,"ERROR",0)</f>
         <v>ERROR</v>
       </c>
       <c r="S329">
@@ -22978,21 +22978,21 @@
       <c r="Q332">
         <v>4</v>
       </c>
-      <c r="R332" t="str">
+      <c r="R332">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S332">
         <f t="shared" si="21"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T332" t="str">
+      <c r="T332">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="U332" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.25">
@@ -23047,21 +23047,21 @@
       <c r="Q333">
         <v>4</v>
       </c>
-      <c r="R333" t="str">
+      <c r="R333">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S333">
         <f t="shared" si="21"/>
         <v>0.93</v>
       </c>
-      <c r="T333" t="str">
+      <c r="T333">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.72</v>
       </c>
       <c r="U333" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.25">
@@ -23116,21 +23116,21 @@
       <c r="Q334">
         <v>4</v>
       </c>
-      <c r="R334" t="str">
+      <c r="R334">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S334">
         <f t="shared" si="21"/>
         <v>1.01</v>
       </c>
-      <c r="T334" t="str">
+      <c r="T334">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>4.04</v>
       </c>
       <c r="U334" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.25">
@@ -23254,21 +23254,21 @@
       <c r="Q336">
         <v>3</v>
       </c>
-      <c r="R336" t="str">
+      <c r="R336">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S336">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T336" t="str">
+      <c r="T336">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3</v>
       </c>
       <c r="U336" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.25">
@@ -23392,21 +23392,21 @@
       <c r="Q338">
         <v>3</v>
       </c>
-      <c r="R338" t="str">
+      <c r="R338">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S338">
         <f t="shared" si="21"/>
         <v>1.08</v>
       </c>
-      <c r="T338" t="str">
+      <c r="T338">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.24</v>
       </c>
       <c r="U338" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.25">
@@ -23530,21 +23530,21 @@
       <c r="Q340">
         <v>1</v>
       </c>
-      <c r="R340" t="str">
+      <c r="R340">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S340">
         <f t="shared" si="21"/>
         <v>0.92</v>
       </c>
-      <c r="T340" t="str">
+      <c r="T340">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>0.92</v>
       </c>
       <c r="U340" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.25">
@@ -24496,21 +24496,21 @@
       <c r="Q354">
         <v>3</v>
       </c>
-      <c r="R354" t="str">
+      <c r="R354">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S354">
         <f t="shared" si="21"/>
         <v>0.98</v>
       </c>
-      <c r="T354" t="str">
+      <c r="T354">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>2.94</v>
       </c>
       <c r="U354" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.25">
@@ -24565,21 +24565,21 @@
       <c r="Q355">
         <v>4</v>
       </c>
-      <c r="R355" t="str">
+      <c r="R355">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S355">
         <f t="shared" si="21"/>
         <v>1.06</v>
       </c>
-      <c r="T355" t="str">
+      <c r="T355">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>4.24</v>
       </c>
       <c r="U355" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.25">
@@ -24703,21 +24703,21 @@
       <c r="Q357">
         <v>1</v>
       </c>
-      <c r="R357" t="str">
+      <c r="R357">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S357">
         <f t="shared" si="21"/>
         <v>1.04</v>
       </c>
-      <c r="T357" t="str">
+      <c r="T357">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>1.04</v>
       </c>
       <c r="U357" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.25">
@@ -24772,21 +24772,21 @@
       <c r="Q358">
         <v>1</v>
       </c>
-      <c r="R358" t="str">
+      <c r="R358">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S358">
         <f t="shared" si="21"/>
         <v>0.92</v>
       </c>
-      <c r="T358" t="str">
+      <c r="T358">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>0.92</v>
       </c>
       <c r="U358" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.25">
@@ -24841,21 +24841,21 @@
       <c r="Q359">
         <v>4</v>
       </c>
-      <c r="R359" t="str">
+      <c r="R359">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S359">
         <f t="shared" si="21"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T359" t="str">
+      <c r="T359">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="U359" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.25">
@@ -25117,21 +25117,21 @@
       <c r="Q363">
         <v>1</v>
       </c>
-      <c r="R363" t="str">
+      <c r="R363">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S363">
         <f t="shared" si="21"/>
         <v>1.1300000000000001</v>
       </c>
-      <c r="T363" t="str">
+      <c r="T363">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="U363" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.25">
@@ -25255,21 +25255,21 @@
       <c r="Q365">
         <v>4</v>
       </c>
-      <c r="R365" t="str">
+      <c r="R365">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S365">
         <f t="shared" si="21"/>
         <v>0.94</v>
       </c>
-      <c r="T365" t="str">
+      <c r="T365">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.76</v>
       </c>
       <c r="U365" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.25">
@@ -25531,21 +25531,21 @@
       <c r="Q369">
         <v>1</v>
       </c>
-      <c r="R369" t="str">
+      <c r="R369">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S369">
         <f t="shared" si="21"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T369" t="str">
+      <c r="T369">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U369" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.25">
@@ -25600,21 +25600,21 @@
       <c r="Q370">
         <v>4</v>
       </c>
-      <c r="R370" t="str">
+      <c r="R370">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S370">
         <f t="shared" si="21"/>
         <v>0.96</v>
       </c>
-      <c r="T370" t="str">
+      <c r="T370">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.84</v>
       </c>
       <c r="U370" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.25">
@@ -25945,21 +25945,21 @@
       <c r="Q375">
         <v>1</v>
       </c>
-      <c r="R375" t="str">
+      <c r="R375">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S375">
         <f t="shared" si="21"/>
         <v>0.9</v>
       </c>
-      <c r="T375" t="str">
+      <c r="T375">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>0.9</v>
       </c>
       <c r="U375" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.25">
@@ -26014,21 +26014,21 @@
       <c r="Q376">
         <v>4</v>
       </c>
-      <c r="R376" t="str">
+      <c r="R376">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S376">
         <f t="shared" si="21"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="T376" t="str">
+      <c r="T376">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="U376" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.25">
@@ -26152,21 +26152,21 @@
       <c r="Q378">
         <v>2</v>
       </c>
-      <c r="R378" t="str">
+      <c r="R378">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S378">
         <f t="shared" si="21"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T378" t="str">
+      <c r="T378">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>1.9600000000000002</v>
       </c>
       <c r="U378" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.25">
@@ -26428,21 +26428,21 @@
       <c r="Q382">
         <v>3</v>
       </c>
-      <c r="R382" t="str">
+      <c r="R382">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S382">
         <f t="shared" si="21"/>
         <v>1.06</v>
       </c>
-      <c r="T382" t="str">
+      <c r="T382">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>3.18</v>
       </c>
       <c r="U382" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.25">
@@ -26497,21 +26497,21 @@
       <c r="Q383">
         <v>4</v>
       </c>
-      <c r="R383" t="str">
+      <c r="R383">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S383">
         <f t="shared" si="21"/>
         <v>1.04</v>
       </c>
-      <c r="T383" t="str">
+      <c r="T383">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>4.16</v>
       </c>
       <c r="U383" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="384" spans="1:21" x14ac:dyDescent="0.25">
@@ -26635,21 +26635,21 @@
       <c r="Q385">
         <v>2</v>
       </c>
-      <c r="R385" t="str">
+      <c r="R385">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S385">
         <f t="shared" si="21"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="T385" t="str">
+      <c r="T385">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="U385" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="386" spans="1:21" x14ac:dyDescent="0.25">
@@ -26704,21 +26704,21 @@
       <c r="Q386">
         <v>3</v>
       </c>
-      <c r="R386" t="str">
+      <c r="R386">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S386">
         <f t="shared" si="21"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T386" t="str">
+      <c r="T386">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>2.85</v>
       </c>
       <c r="U386" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="387" spans="1:21" x14ac:dyDescent="0.25">
@@ -26911,21 +26911,21 @@
       <c r="Q389">
         <v>4</v>
       </c>
-      <c r="R389" t="str">
+      <c r="R389">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S389">
         <f t="shared" si="21"/>
         <v>1.08</v>
       </c>
-      <c r="T389" t="str">
+      <c r="T389">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>4.32</v>
       </c>
       <c r="U389" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.25">
@@ -26980,21 +26980,21 @@
       <c r="Q390">
         <v>2</v>
       </c>
-      <c r="R390" t="str">
+      <c r="R390">
         <f t="shared" si="20"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S390">
         <f t="shared" si="21"/>
         <v>1.06</v>
       </c>
-      <c r="T390" t="str">
+      <c r="T390">
         <f t="shared" si="22"/>
-        <v>Invalid</v>
+        <v>2.12</v>
       </c>
       <c r="U390" t="str">
         <f t="shared" si="23"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.25">
@@ -27187,21 +27187,21 @@
       <c r="Q393">
         <v>3</v>
       </c>
-      <c r="R393" t="str">
-        <f t="shared" ref="R393:R456" si="24">IF(IF(A393&gt;3,1,0)+IF(C393&gt;3,1,0)+IF(E393&gt;3,1,0)+IF(G393&gt;3,1,0)+IF(I393&gt;3,1,0)+IF(K393&gt;3,1,0)&gt;0,"ERROR",0)</f>
-        <v>ERROR</v>
+      <c r="R393">
+        <f t="shared" ref="R393:R456" si="24">IF(IF(B393*C393&gt;3,1,0)+IF(D393*E393&gt;3,1,0)+IF(F393*G393&gt;3,1,0)+IF(H393*I393&gt;3,1,0)+IF(J393*K393&gt;3,1,0)+IF(L393*M393&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <v>0</v>
       </c>
       <c r="S393">
         <f t="shared" ref="S393:S456" si="25">0.92+M393*0.03+N393*0.05-O393*0.02+IF(P393&gt;2,P393*0.005,0)</f>
         <v>0.96</v>
       </c>
-      <c r="T393" t="str">
+      <c r="T393">
         <f t="shared" ref="T393:T456" si="26">IF(R393=0,Q393*S393,"Invalid")</f>
-        <v>Invalid</v>
+        <v>2.88</v>
       </c>
       <c r="U393" t="str">
         <f t="shared" ref="U393:U456" si="27">IF(T393&gt;80,"Critical",IF(T393&gt;60, "Risky",IF(T393&gt;40,"Moderate",IF(T393&gt;20, "Low Risk", IF(T393&gt;=0,"No Risk","Invalid")))))</f>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.25">
@@ -27394,21 +27394,21 @@
       <c r="Q396">
         <v>1</v>
       </c>
-      <c r="R396" t="str">
+      <c r="R396">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S396">
         <f t="shared" si="25"/>
         <v>1.02</v>
       </c>
-      <c r="T396" t="str">
+      <c r="T396">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.02</v>
       </c>
       <c r="U396" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.25">
@@ -27532,21 +27532,21 @@
       <c r="Q398">
         <v>4</v>
       </c>
-      <c r="R398" t="str">
+      <c r="R398">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S398">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T398" t="str">
+      <c r="T398">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>4</v>
       </c>
       <c r="U398" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.25">
@@ -27601,21 +27601,21 @@
       <c r="Q399">
         <v>3</v>
       </c>
-      <c r="R399" t="str">
+      <c r="R399">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S399">
         <f t="shared" si="25"/>
         <v>0.93</v>
       </c>
-      <c r="T399" t="str">
+      <c r="T399">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>2.79</v>
       </c>
       <c r="U399" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="400" spans="1:21" x14ac:dyDescent="0.25">
@@ -27670,21 +27670,21 @@
       <c r="Q400">
         <v>3</v>
       </c>
-      <c r="R400" t="str">
+      <c r="R400">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S400">
         <f t="shared" si="25"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="T400" t="str">
+      <c r="T400">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>2.9400000000000004</v>
       </c>
       <c r="U400" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="401" spans="1:21" x14ac:dyDescent="0.25">
@@ -28084,21 +28084,21 @@
       <c r="Q406">
         <v>1</v>
       </c>
-      <c r="R406" t="str">
+      <c r="R406">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S406">
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="T406" t="str">
+      <c r="T406">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>0.9</v>
       </c>
       <c r="U406" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="407" spans="1:21" x14ac:dyDescent="0.25">
@@ -28222,21 +28222,21 @@
       <c r="Q408">
         <v>2</v>
       </c>
-      <c r="R408" t="str">
+      <c r="R408">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S408">
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="T408" t="str">
+      <c r="T408">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.8</v>
       </c>
       <c r="U408" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="409" spans="1:21" x14ac:dyDescent="0.25">
@@ -29602,21 +29602,21 @@
       <c r="Q428">
         <v>4</v>
       </c>
-      <c r="R428" t="str">
+      <c r="R428">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S428">
         <f t="shared" si="25"/>
         <v>0.96</v>
       </c>
-      <c r="T428" t="str">
+      <c r="T428">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>3.84</v>
       </c>
       <c r="U428" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.25">
@@ -29671,21 +29671,21 @@
       <c r="Q429">
         <v>1</v>
       </c>
-      <c r="R429" t="str">
+      <c r="R429">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S429">
         <f t="shared" si="25"/>
         <v>0.91000000000000014</v>
       </c>
-      <c r="T429" t="str">
+      <c r="T429">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>0.91000000000000014</v>
       </c>
       <c r="U429" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.25">
@@ -29740,21 +29740,21 @@
       <c r="Q430">
         <v>1</v>
       </c>
-      <c r="R430" t="str">
+      <c r="R430">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S430">
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="T430" t="str">
+      <c r="T430">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>0.9</v>
       </c>
       <c r="U430" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.25">
@@ -29809,21 +29809,21 @@
       <c r="Q431">
         <v>2</v>
       </c>
-      <c r="R431" t="str">
+      <c r="R431">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S431">
         <f t="shared" si="25"/>
         <v>0.98</v>
       </c>
-      <c r="T431" t="str">
+      <c r="T431">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.96</v>
       </c>
       <c r="U431" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.25">
@@ -30154,21 +30154,21 @@
       <c r="Q436">
         <v>4</v>
       </c>
-      <c r="R436" t="str">
+      <c r="R436">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S436">
         <f t="shared" si="25"/>
         <v>1.08</v>
       </c>
-      <c r="T436" t="str">
+      <c r="T436">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>4.32</v>
       </c>
       <c r="U436" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
@@ -30292,21 +30292,21 @@
       <c r="Q438">
         <v>2</v>
       </c>
-      <c r="R438" t="str">
+      <c r="R438">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S438">
         <f t="shared" si="25"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T438" t="str">
+      <c r="T438">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.9400000000000002</v>
       </c>
       <c r="U438" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
@@ -30499,21 +30499,21 @@
       <c r="Q441">
         <v>2</v>
       </c>
-      <c r="R441" t="str">
+      <c r="R441">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S441">
         <f t="shared" si="25"/>
         <v>0.98</v>
       </c>
-      <c r="T441" t="str">
+      <c r="T441">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.96</v>
       </c>
       <c r="U441" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
@@ -30637,21 +30637,21 @@
       <c r="Q443">
         <v>1</v>
       </c>
-      <c r="R443" t="str">
+      <c r="R443">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S443">
         <f t="shared" si="25"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="T443" t="str">
+      <c r="T443">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>0.89000000000000012</v>
       </c>
       <c r="U443" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
@@ -30706,21 +30706,21 @@
       <c r="Q444">
         <v>3</v>
       </c>
-      <c r="R444" t="str">
+      <c r="R444">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S444">
         <f t="shared" si="25"/>
         <v>0.92</v>
       </c>
-      <c r="T444" t="str">
+      <c r="T444">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="U444" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
@@ -30844,21 +30844,21 @@
       <c r="Q446">
         <v>2</v>
       </c>
-      <c r="R446" t="str">
+      <c r="R446">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S446">
         <f t="shared" si="25"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T446" t="str">
+      <c r="T446">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="U446" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
@@ -30913,21 +30913,21 @@
       <c r="Q447">
         <v>4</v>
       </c>
-      <c r="R447" t="str">
+      <c r="R447">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S447">
         <f t="shared" si="25"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="T447" t="str">
+      <c r="T447">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="U447" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
@@ -31120,21 +31120,21 @@
       <c r="Q450">
         <v>4</v>
       </c>
-      <c r="R450" t="str">
+      <c r="R450">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S450">
         <f t="shared" si="25"/>
         <v>0.94</v>
       </c>
-      <c r="T450" t="str">
+      <c r="T450">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>3.76</v>
       </c>
       <c r="U450" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.25">
@@ -31189,21 +31189,21 @@
       <c r="Q451">
         <v>2</v>
       </c>
-      <c r="R451" t="str">
+      <c r="R451">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S451">
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="T451" t="str">
+      <c r="T451">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>1.8</v>
       </c>
       <c r="U451" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.25">
@@ -31327,21 +31327,21 @@
       <c r="Q453">
         <v>3</v>
       </c>
-      <c r="R453" t="str">
+      <c r="R453">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S453">
         <f t="shared" si="25"/>
         <v>1.05</v>
       </c>
-      <c r="T453" t="str">
+      <c r="T453">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="U453" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="454" spans="1:21" x14ac:dyDescent="0.25">
@@ -31396,21 +31396,21 @@
       <c r="Q454">
         <v>4</v>
       </c>
-      <c r="R454" t="str">
+      <c r="R454">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S454">
         <f t="shared" si="25"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="T454" t="str">
+      <c r="T454">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>3.8800000000000003</v>
       </c>
       <c r="U454" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="455" spans="1:21" x14ac:dyDescent="0.25">
@@ -31465,21 +31465,21 @@
       <c r="Q455">
         <v>4</v>
       </c>
-      <c r="R455" t="str">
+      <c r="R455">
         <f t="shared" si="24"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S455">
         <f t="shared" si="25"/>
         <v>1.06</v>
       </c>
-      <c r="T455" t="str">
+      <c r="T455">
         <f t="shared" si="26"/>
-        <v>Invalid</v>
+        <v>4.24</v>
       </c>
       <c r="U455" t="str">
         <f t="shared" si="27"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="456" spans="1:21" x14ac:dyDescent="0.25">
@@ -31603,21 +31603,21 @@
       <c r="Q457">
         <v>4</v>
       </c>
-      <c r="R457" t="str">
-        <f t="shared" ref="R457:R487" si="28">IF(IF(A457&gt;3,1,0)+IF(C457&gt;3,1,0)+IF(E457&gt;3,1,0)+IF(G457&gt;3,1,0)+IF(I457&gt;3,1,0)+IF(K457&gt;3,1,0)&gt;0,"ERROR",0)</f>
-        <v>ERROR</v>
+      <c r="R457">
+        <f t="shared" ref="R457:R487" si="28">IF(IF(B457*C457&gt;3,1,0)+IF(D457*E457&gt;3,1,0)+IF(F457*G457&gt;3,1,0)+IF(H457*I457&gt;3,1,0)+IF(J457*K457&gt;3,1,0)+IF(L457*M457&gt;3,1,0)&gt;0,"ERROR",0)</f>
+        <v>0</v>
       </c>
       <c r="S457">
         <f t="shared" ref="S457:S487" si="29">0.92+M457*0.03+N457*0.05-O457*0.02+IF(P457&gt;2,P457*0.005,0)</f>
         <v>1</v>
       </c>
-      <c r="T457" t="str">
+      <c r="T457">
         <f t="shared" ref="T457:T487" si="30">IF(R457=0,Q457*S457,"Invalid")</f>
-        <v>Invalid</v>
+        <v>4</v>
       </c>
       <c r="U457" t="str">
         <f t="shared" ref="U457:U487" si="31">IF(T457&gt;80,"Critical",IF(T457&gt;60, "Risky",IF(T457&gt;40,"Moderate",IF(T457&gt;20, "Low Risk", IF(T457&gt;=0,"No Risk","Invalid")))))</f>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
@@ -31741,21 +31741,21 @@
       <c r="Q459">
         <v>4</v>
       </c>
-      <c r="R459" t="str">
+      <c r="R459">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S459">
         <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
-      <c r="T459" t="str">
+      <c r="T459">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>3.6</v>
       </c>
       <c r="U459" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="460" spans="1:21" x14ac:dyDescent="0.25">
@@ -32431,21 +32431,21 @@
       <c r="Q469">
         <v>2</v>
       </c>
-      <c r="R469" t="str">
+      <c r="R469">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S469">
         <f t="shared" si="29"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="T469" t="str">
+      <c r="T469">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="U469" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="470" spans="1:21" x14ac:dyDescent="0.25">
@@ -32500,21 +32500,21 @@
       <c r="Q470">
         <v>3</v>
       </c>
-      <c r="R470" t="str">
+      <c r="R470">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S470">
         <f t="shared" si="29"/>
         <v>1.05</v>
       </c>
-      <c r="T470" t="str">
+      <c r="T470">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="U470" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.25">
@@ -32638,21 +32638,21 @@
       <c r="Q472">
         <v>3</v>
       </c>
-      <c r="R472" t="str">
+      <c r="R472">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S472">
         <f t="shared" si="29"/>
         <v>0.96</v>
       </c>
-      <c r="T472" t="str">
+      <c r="T472">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>2.88</v>
       </c>
       <c r="U472" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.25">
@@ -32707,21 +32707,21 @@
       <c r="Q473">
         <v>1</v>
       </c>
-      <c r="R473" t="str">
+      <c r="R473">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S473">
         <f t="shared" si="29"/>
         <v>0.94</v>
       </c>
-      <c r="T473" t="str">
+      <c r="T473">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>0.94</v>
       </c>
       <c r="U473" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.25">
@@ -32776,21 +32776,21 @@
       <c r="Q474">
         <v>1</v>
       </c>
-      <c r="R474" t="str">
+      <c r="R474">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S474">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="T474" t="str">
+      <c r="T474">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>1</v>
       </c>
       <c r="U474" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.25">
@@ -32845,21 +32845,21 @@
       <c r="Q475">
         <v>1</v>
       </c>
-      <c r="R475" t="str">
+      <c r="R475">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S475">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="T475" t="str">
+      <c r="T475">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>1</v>
       </c>
       <c r="U475" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.25">
@@ -32983,21 +32983,21 @@
       <c r="Q477">
         <v>2</v>
       </c>
-      <c r="R477" t="str">
+      <c r="R477">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S477">
         <f t="shared" si="29"/>
         <v>1.01</v>
       </c>
-      <c r="T477" t="str">
+      <c r="T477">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>2.02</v>
       </c>
       <c r="U477" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.25">
@@ -33052,21 +33052,21 @@
       <c r="Q478">
         <v>2</v>
       </c>
-      <c r="R478" t="str">
+      <c r="R478">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S478">
         <f t="shared" si="29"/>
         <v>0.96</v>
       </c>
-      <c r="T478" t="str">
+      <c r="T478">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>1.92</v>
       </c>
       <c r="U478" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.25">
@@ -33190,21 +33190,21 @@
       <c r="Q480">
         <v>4</v>
       </c>
-      <c r="R480" t="str">
+      <c r="R480">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S480">
         <f t="shared" si="29"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="T480" t="str">
+      <c r="T480">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="U480" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.25">
@@ -33259,21 +33259,21 @@
       <c r="Q481">
         <v>1</v>
       </c>
-      <c r="R481" t="str">
+      <c r="R481">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S481">
         <f t="shared" si="29"/>
         <v>1.03</v>
       </c>
-      <c r="T481" t="str">
+      <c r="T481">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>1.03</v>
       </c>
       <c r="U481" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.25">
@@ -33397,21 +33397,21 @@
       <c r="Q483">
         <v>2</v>
       </c>
-      <c r="R483" t="str">
+      <c r="R483">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S483">
         <f t="shared" si="29"/>
         <v>0.93</v>
       </c>
-      <c r="T483" t="str">
+      <c r="T483">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>1.86</v>
       </c>
       <c r="U483" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.25">
@@ -33535,21 +33535,21 @@
       <c r="Q485">
         <v>4</v>
       </c>
-      <c r="R485" t="str">
+      <c r="R485">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S485">
         <f t="shared" si="29"/>
         <v>1.05</v>
       </c>
-      <c r="T485" t="str">
+      <c r="T485">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>4.2</v>
       </c>
       <c r="U485" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.25">
@@ -33604,21 +33604,21 @@
       <c r="Q486">
         <v>4</v>
       </c>
-      <c r="R486" t="str">
+      <c r="R486">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S486">
         <f t="shared" si="29"/>
         <v>1.1300000000000001</v>
       </c>
-      <c r="T486" t="str">
+      <c r="T486">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>4.5200000000000005</v>
       </c>
       <c r="U486" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.25">
@@ -33673,21 +33673,21 @@
       <c r="Q487">
         <v>4</v>
       </c>
-      <c r="R487" t="str">
+      <c r="R487">
         <f t="shared" si="28"/>
-        <v>ERROR</v>
+        <v>0</v>
       </c>
       <c r="S487">
         <f t="shared" si="29"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="T487" t="str">
+      <c r="T487">
         <f t="shared" si="30"/>
-        <v>Invalid</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="U487" t="str">
         <f t="shared" si="31"/>
-        <v>Critical</v>
+        <v>No Risk</v>
       </c>
     </row>
   </sheetData>
